--- a/indice big mac paises faltantes github.xlsx
+++ b/indice big mac paises faltantes github.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuario Windows\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{469CB08A-2EF7-4001-AD0E-9BE587453382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{468D12CC-DEF0-4ED6-85DD-A6E4B5EEF436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{44CB5D89-EB47-4820-92FC-15350BF4BEF8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Country</t>
   </si>
@@ -171,13 +171,19 @@
   </si>
   <si>
     <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Andorra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +209,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Söhne"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -218,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -241,17 +253,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,18 +624,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399A4098-4D30-4A4A-96CF-92E3C0AC1FEC}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,7 +646,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -619,7 +657,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -630,7 +668,7 @@
         <v>5.08</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -641,7 +679,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -652,7 +690,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="28.5">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -663,7 +701,7 @@
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -674,7 +712,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="42.75">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -685,7 +723,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -696,7 +734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -707,7 +745,7 @@
         <v>5.35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -718,7 +756,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="28.5">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -729,7 +767,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -740,7 +778,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -751,7 +789,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -762,7 +800,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -773,7 +811,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -784,7 +822,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -795,7 +833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -806,7 +844,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -817,7 +855,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -828,7 +866,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -839,7 +877,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -850,7 +888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -861,7 +899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -872,7 +910,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -883,7 +921,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -894,7 +932,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -905,7 +943,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -916,7 +954,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -927,7 +965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -938,7 +976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -949,7 +987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -960,7 +998,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -971,7 +1009,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -982,7 +1020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -993,7 +1031,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -1004,7 +1042,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -1015,7 +1053,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -1026,7 +1064,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -1037,7 +1075,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -1048,7 +1086,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -1059,7 +1097,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="28.5">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -1070,7 +1108,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -1079,6 +1117,28 @@
       </c>
       <c r="C44" s="1">
         <v>3.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4">
+        <v>5.29</v>
+      </c>
+      <c r="C46" s="5">
+        <v>5.48</v>
       </c>
     </row>
   </sheetData>
